--- a/03_RPA/2차프로젝트/제주도_렌터카업체위치.xlsx
+++ b/03_RPA/2차프로젝트/제주도_렌터카업체위치.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="557">
   <si>
     <t>id</t>
   </si>
@@ -1704,10 +1704,6 @@
   </si>
   <si>
     <t>제주렌트카 본사</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주로렌트카</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2653,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y117"/>
+  <dimension ref="A1:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2808,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -5633,7 +5629,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -6737,7 +6733,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C67" t="s">
         <v>25</v>
@@ -9666,14 +9662,6 @@
       </c>
       <c r="V116" s="2">
         <v>44896</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
